--- a/Output_testing/R1_201907/Country/HKD/MN/NETHERLANDS_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/NETHERLANDS_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>26485.853814</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>46.16068914141725</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>32210.450373</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>50.34260035798555</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>36287.376569</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>50.88525769629663</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>18136.348691</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>46.43823788692293</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-4.606402303531421</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>9905.404528999999</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>17.26356652476371</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>8665.387623000001</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>13.54337306681667</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>7961.214479</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>11.16389468301998</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>4302.711472</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>11.01712049651331</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>1.639174632999896</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>2089.073139</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>3.64092682985703</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>3317.691016</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>5.185310698721879</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>4412.99822</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>6.188282892564769</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>3536.065038</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>9.054117353828902</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>41.22993014722793</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>2865.672963</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>4.994418520730687</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>2826.328956</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>4.417347397023014</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>3159.989938</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.431207695796942</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1655.490575</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>4.23889430288462</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-4.469835507147635</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>1899.40349</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.310362379545716</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>2095.308687</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>3.274815677357819</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>1989.836032</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.790317979288594</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1022.966941</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.619313455314722</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-13.33155352557279</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>796.621072</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.388385585993727</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>1021.126855</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.595947296010559</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>1299.286085</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.821969883403432</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1015.849296</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.601088679350381</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>49.92770855315507</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1112.048633</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.938126352978556</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1369.064693</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.139748929487195</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>1424.525595</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.997591417464734</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>890.973847</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.281344286159704</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>19.27737426042327</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>771.14493</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.343984666180336</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>626.509871</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.9791895391355409</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>708.145005</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.9930213885054983</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>510.201489</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.306374205751881</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>33.45548031551797</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>507.658511</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.8847691632232366</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>590.014136</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.9221493493648312</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>741.89604</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.040349971497053</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>478.568829</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.225378575644421</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>11.50985044807127</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>717.9472960000001</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.251269533665526</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>857.506902</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.340221163370825</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>1033.400996</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.449123109935493</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>444.92713</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.139238788209836</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-26.40792490121532</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>10226.681159</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>17.82350130164422</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>10403.103139</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>16.25929652472612</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>12293.491403</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>17.23898328222688</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>7060.670336</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>18.0788919694193</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-1.530284315080466</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,435 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>9.263085999999999</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>3.400002918770614</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>7.462618</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>3.533077992454118</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>6.576642</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>4.147601711894236</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>207.167782</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>69.10661519273414</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>67.52892</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>24.78639679059735</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>60.559856</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>28.67126448919005</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>67.96317000000001</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>42.86141168057483</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>44.344184</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>14.79224438346209</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>13.59119808143767</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ANIMAL OR VEGETABLE FATS AND OILS, PROCESSED; WAXES, AND INEDIBLE MIXTURES OR PREPARATIONS OF ANIMAL OR VEGETABLE FATS OR OILS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>38.441774</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>14.1100000369985</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>22.795442</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>10.79220113617825</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>15.826238</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>9.980919110641208</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>12.288723</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>4.099247688866512</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>48.35774810341307</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>9.826143</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>3.606672212722351</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>9.800829</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>4.640073128184519</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>10.368251</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>6.538804392416241</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>8.577615</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>2.86130368995515</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>17.4776613965979</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>17.79932</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>6.533215815132469</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>15.076841</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>7.137931371112649</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>11.293756</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>7.122480092320033</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>6.800056</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>2.268349106913945</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>4.149879018658909</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>2.43738</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.8946369616079478</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>3.615569</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>1.711743420887863</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>4.654846</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>2.935608664452777</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>3.265972</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>1.089456420565647</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>24.19674515035313</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>FIXED VEGETABLE FATS AND OILS, `SOFT', CRUDE, REFINED OR FRACTIONATED</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>3.607597</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>1.324163494730386</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>3.868764</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>1.831615251698367</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>3.679972</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>2.320798086154432</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>2.784248</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.928763890213101</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>24.02194422716801</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>056</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>VEGETABLES, ROOTS AND TUBERS, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>2.263526</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.8308240910980609</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>2.638126</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>1.248985933880176</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>2.893583</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>1.824856789271494</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>1.823011</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.6081163704746398</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>4.669025676770455</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>COPPER</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>2.30232</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.8450633752017372</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>1.116371</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.5285311148867591</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>2.665507</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>1.681019188252313</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>1.646691</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.5492998968263249</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-8.37820694720326</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>058</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT, PRESERVED, AND FRUIT PREPARATIONS (EXCLUDING FRUIT JUICES)</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>3.135112</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>1.150738528247797</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>3.05375</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1.445757630828318</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>2.718929</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>1.714710117248116</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>1.536582</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.5125699563944832</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-9.88814175982322</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>115.838294</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>42.51828577489278</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>81.233268</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>38.45881853069892</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>29.924042</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>18.87179016677432</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>9.545094000000001</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>3.184033403593979</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-42.227653125777</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1728,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>26485.325244</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>46.37999230106276</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>32210.418162</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>50.50929321203588</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>36287.356193</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>50.9986262475506</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>18136.348691</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>46.79744973755896</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-4.606300066555069</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>9902.840022</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>17.34143869284991</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>8664.575491</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>13.5869575437255</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>7960.892414</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>11.18832065524975</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>4302.711472</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>11.10234078958018</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>1.639174632999896</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>2071.273819</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>3.627127962129732</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>3302.614175</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>5.178843282702148</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>4401.704464</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>6.186201045283493</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>3529.264982</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>9.106607036488629</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>41.3268771840521</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>2865.672963</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>5.018246471842485</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>2826.328956</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>4.431978412521401</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>3159.989938</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>4.441082589124258</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>1655.490575</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.271683253035945</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-4.469835507147635</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>1899.389473</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>3.326131294325579</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>2095.104845</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3.285342785487492</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1989.727456</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.796383575682165</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1022.786011</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.639107670321915</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-13.34057413185282</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>796.599739</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.394972099510782</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>1021.099581</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.601190579893223</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>1299.285081</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.826028710455343</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1015.849296</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.621208776940065</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>49.92770855315507</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1112.048633</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.947372990959648</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1369.064693</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.146836146528599</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>1424.525595</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.002043026035855</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>890.973847</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.298991077688806</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>19.27737426042327</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>771.14493</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.350396704095826</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>626.509871</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.9824327835615069</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>708.145005</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.9952343247875273</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>510.19838</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.316471327885433</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>33.4546670817324</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>507.658511</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.8889903225592037</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>590.014136</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.925203666856699</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>741.89604</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.042668378959956</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>478.568829</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.234857197700641</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>11.50985044807127</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>712.6047150000001</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.247883531386435</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>856.871413</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.343663693732723</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>1033.345877</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.452274998632618</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>444.892508</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.147961761017432</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-26.41032962962973</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>9980.508014999999</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>17.47744762927764</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>10208.669494</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>16.00825789295482</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>12146.727363</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>17.07113644823843</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>6767.909095</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>17.46332137178199</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-4.48059628915134</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2186,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>MILK AND CREAM AND MILK PRODUCTS OTHER THAN BUTTER OR CHEESE</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>7285.690177</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>35.18186110211619</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>5511.568305</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>26.79038027279022</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>4973.490455</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>23.43400645458145</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>2099.982609</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>18.27027691588106</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-30.76460723706231</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>953.2952289999999</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>4.603366259227639</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>1327.682065</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>6.453536531597676</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>1507.063299</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>7.10095483157589</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>741.840725</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>6.454165579819793</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-16.69329085878184</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>1526.090013</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>7.369334347511423</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>1599.843721</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>7.776447517441354</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>1495.786735</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>7.047822112019579</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>733.516651</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>6.38174443861772</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-9.987436507072978</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>MEDICINAL AND PHARMACEUTICAL PRODUCTS, OTHER THAN MEDICAMENTS OF GROUP 542</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>465.311955</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>2.246944376202526</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>577.056635</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>2.804930617763015</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>699.791431</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>3.297265182127467</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>571.824026</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>4.974985629594787</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>11.01246650039143</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>1374.347416</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>6.636584691510179</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>1480.842512</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>7.198011858912072</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>1089.626494</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>5.134083301156946</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>510.168454</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.438569580709764</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-22.21081074146242</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>447.550989</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>2.161178467459381</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>525.3790320000001</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.553738478004841</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>807.334108</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>3.8039829108058</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>471.621635</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>4.103204395142009</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>0.2371010906851989</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>106.073129</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.5122164133366293</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>90.084025</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.4378763271543163</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>621.702371</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>2.929326497489497</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>313.224418</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.725116307701613</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-9.269125901754972</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>366.437172</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>1.769488047769926</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>431.376212</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>2.096813850539002</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>556.190335</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.620648017382356</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>312.497951</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.718795896664223</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>4.243215380077459</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>494.436719</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>2.387584916327969</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>532.094516</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>2.586380796873071</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>450.993535</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>2.124983551449182</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>292.104599</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.541369575757469</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-5.019842118865037</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>302.94895</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.462909843953956</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>326.759461</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.588297510525357</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>423.795254</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.99683116063344</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>278.269774</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>2.421003777131584</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>23.11271564259083</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>7386.473077</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>35.66853153458418</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>8170.251447</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>39.71358623839908</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>8597.615438999999</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>40.51009598077839</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>5168.93263</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>44.97076790297998</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>9.72669253759031</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
